--- a/generated_files/gsa_results/cge_N500/sobol_total.xlsx
+++ b/generated_files/gsa_results/cge_N500/sobol_total.xlsx
@@ -1,15 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andpa\OneDrive - University College London\S4CE\GSA\Geothermal\generated_files\gsa_results\cge_N500\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_FFC65FC08439EEFEAC170B230309495B68C4DD1F" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{44B1F4B8-D205-4431-9F8A-847CD648A755}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -121,8 +135,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +199,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -231,7 +253,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,9 +285,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -297,6 +337,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -472,14 +530,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:R18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +592,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -540,55 +600,55 @@
         <v>17</v>
       </c>
       <c r="C2">
-        <v>0.001864699934660913</v>
+        <v>1.8646999346609129E-3</v>
       </c>
       <c r="D2">
-        <v>0.6956050777754688</v>
+        <v>0.69560507777546876</v>
       </c>
       <c r="E2">
-        <v>0.6878995455547565</v>
+        <v>0.68789954555475652</v>
       </c>
       <c r="F2">
-        <v>0.6938937204773628</v>
+        <v>0.69389372047736275</v>
       </c>
       <c r="G2">
-        <v>0.6813829589820771</v>
+        <v>0.68138295898207712</v>
       </c>
       <c r="H2">
         <v>0.6797781199959303</v>
       </c>
       <c r="I2">
-        <v>0.7109971643713796</v>
+        <v>0.71099716437137961</v>
       </c>
       <c r="J2">
-        <v>0.6874446007200267</v>
+        <v>0.68744460072002667</v>
       </c>
       <c r="K2">
         <v>0.6846635408335453</v>
       </c>
       <c r="L2">
-        <v>0.6989321326545029</v>
+        <v>0.69893213265450294</v>
       </c>
       <c r="M2">
-        <v>0.6750905399880667</v>
+        <v>0.67509053998806667</v>
       </c>
       <c r="N2">
-        <v>0.6759713483248506</v>
+        <v>0.67597134832485062</v>
       </c>
       <c r="O2">
-        <v>0.7363768094510768</v>
+        <v>0.73637680945107675</v>
       </c>
       <c r="P2">
-        <v>0.7012705042885422</v>
+        <v>0.70127050428854221</v>
       </c>
       <c r="Q2">
-        <v>0.6959319225750217</v>
+        <v>0.69593192257502168</v>
       </c>
       <c r="R2">
-        <v>0.7189977566645335</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>0.71899775666453347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -596,40 +656,40 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>0.0006941933760932406</v>
+        <v>6.941933760932406E-4</v>
       </c>
       <c r="D3">
-        <v>0.3051063747132585</v>
+        <v>0.30510637471325852</v>
       </c>
       <c r="E3">
-        <v>0.3263009181756849</v>
+        <v>0.32630091817568491</v>
       </c>
       <c r="F3">
-        <v>0.3136266601876277</v>
+        <v>0.31362666018762769</v>
       </c>
       <c r="G3">
-        <v>0.3405007120522158</v>
+        <v>0.34050071205221583</v>
       </c>
       <c r="H3">
-        <v>0.3450613569909767</v>
+        <v>0.34506135699097668</v>
       </c>
       <c r="I3">
-        <v>0.2510970693053794</v>
+        <v>0.25109706930537939</v>
       </c>
       <c r="J3">
-        <v>0.326846126151029</v>
+        <v>0.32684612615102898</v>
       </c>
       <c r="K3">
-        <v>0.3537954199690481</v>
+        <v>0.35379541996904812</v>
       </c>
       <c r="L3">
-        <v>0.2923684235131256</v>
+        <v>0.29236842351312559</v>
       </c>
       <c r="M3">
-        <v>0.3547682686511343</v>
+        <v>0.35476826865113431</v>
       </c>
       <c r="N3">
-        <v>0.3533510974441352</v>
+        <v>0.35335109744413518</v>
       </c>
       <c r="O3">
         <v>0.2178419868273031</v>
@@ -638,13 +698,13 @@
         <v>0.2627636927845457</v>
       </c>
       <c r="Q3">
-        <v>0.301904173427522</v>
+        <v>0.30190417342752202</v>
       </c>
       <c r="R3">
-        <v>0.2381195456283279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>0.23811954562832791</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -652,55 +712,55 @@
         <v>19</v>
       </c>
       <c r="C4">
-        <v>1.098334078321136e-05</v>
+        <v>1.0983340783211361E-5</v>
       </c>
       <c r="D4">
-        <v>0.003832285482814306</v>
+        <v>3.8322854828143058E-3</v>
       </c>
       <c r="E4">
-        <v>0.00213210390331604</v>
+        <v>2.1321039033160398E-3</v>
       </c>
       <c r="F4">
-        <v>0.003117064050393914</v>
+        <v>3.117064050393914E-3</v>
       </c>
       <c r="G4">
-        <v>0.001280335169115419</v>
+        <v>1.280335169115419E-3</v>
       </c>
       <c r="H4">
-        <v>0.00107927382619653</v>
+        <v>1.07927382619653E-3</v>
       </c>
       <c r="I4">
-        <v>0.009887658058400292</v>
+        <v>9.8876580584002921E-3</v>
       </c>
       <c r="J4">
-        <v>0.002118574812967915</v>
+        <v>2.118574812967915E-3</v>
       </c>
       <c r="K4">
-        <v>0.0007887682876648682</v>
+        <v>7.8876828766486818E-4</v>
       </c>
       <c r="L4">
-        <v>0.005002039243186693</v>
+        <v>5.0020392431866928E-3</v>
       </c>
       <c r="M4">
-        <v>0.0006440291565196586</v>
+        <v>6.4402915651965863E-4</v>
       </c>
       <c r="N4">
-        <v>0.0007016213007854293</v>
+        <v>7.0162130078542926E-4</v>
       </c>
       <c r="O4">
-        <v>0.006972389466003385</v>
+        <v>6.972389466003385E-3</v>
       </c>
       <c r="P4">
-        <v>0.008321713107748008</v>
+        <v>8.3217131077480081E-3</v>
       </c>
       <c r="Q4">
-        <v>0.004126112288657515</v>
+        <v>4.1261122886575149E-3</v>
       </c>
       <c r="R4">
-        <v>0.01202573837218423</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.2025738372184231E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -708,55 +768,55 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>3.637249305726898e-05</v>
+        <v>3.637249305726898E-5</v>
       </c>
       <c r="D5">
-        <v>0.01589299168080763</v>
+        <v>1.5892991680807631E-2</v>
       </c>
       <c r="E5">
-        <v>0.01595142727366905</v>
+        <v>1.595142727366905E-2</v>
       </c>
       <c r="F5">
-        <v>0.01601796286710209</v>
+        <v>1.6017962867102092E-2</v>
       </c>
       <c r="G5">
-        <v>0.01606321633033689</v>
+        <v>1.6063216330336891E-2</v>
       </c>
       <c r="H5">
-        <v>0.01613809738700267</v>
+        <v>1.613809738700267E-2</v>
       </c>
       <c r="I5">
-        <v>0.01491632467360924</v>
+        <v>1.4916324673609239E-2</v>
       </c>
       <c r="J5">
-        <v>0.01592945814602399</v>
+        <v>1.5929458146023989E-2</v>
       </c>
       <c r="K5">
-        <v>0.0166415191806278</v>
+        <v>1.6641519180627801E-2</v>
       </c>
       <c r="L5">
-        <v>0.01560501643257442</v>
+        <v>1.560501643257442E-2</v>
       </c>
       <c r="M5">
-        <v>0.01621462930059722</v>
+        <v>1.6214629300597218E-2</v>
       </c>
       <c r="N5">
-        <v>0.01620546376645775</v>
+        <v>1.6205463766457751E-2</v>
       </c>
       <c r="O5">
-        <v>0.01493781176973286</v>
+        <v>1.493781176973286E-2</v>
       </c>
       <c r="P5">
-        <v>0.01493831249368543</v>
+        <v>1.493831249368543E-2</v>
       </c>
       <c r="Q5">
-        <v>0.01558167300104349</v>
+        <v>1.5581673001043491E-2</v>
       </c>
       <c r="R5">
-        <v>0.01473170276094979</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.473170276094979E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -812,7 +872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -820,55 +880,55 @@
         <v>22</v>
       </c>
       <c r="C7">
-        <v>5.362483549798016e-05</v>
+        <v>5.3624835497980161E-5</v>
       </c>
       <c r="D7">
-        <v>0.02157511161824787</v>
+        <v>2.1575111618247871E-2</v>
       </c>
       <c r="E7">
-        <v>0.02364175056814889</v>
+        <v>2.3641750568148889E-2</v>
       </c>
       <c r="F7">
-        <v>0.02261715856217125</v>
+        <v>2.2617158562171249E-2</v>
       </c>
       <c r="G7">
-        <v>0.02382515469897313</v>
+        <v>2.3825154698973131E-2</v>
       </c>
       <c r="H7">
-        <v>0.02265670763512533</v>
+        <v>2.2656707635125329E-2</v>
       </c>
       <c r="I7">
-        <v>0.02375660679090305</v>
+        <v>2.3756606790903051E-2</v>
       </c>
       <c r="J7">
-        <v>0.0238619360035478</v>
+        <v>2.3861936003547801E-2</v>
       </c>
       <c r="K7">
-        <v>0.02195955084081611</v>
+        <v>2.1959550840816109E-2</v>
       </c>
       <c r="L7">
-        <v>0.02425549665764457</v>
+        <v>2.4255496657644569E-2</v>
       </c>
       <c r="M7">
-        <v>0.0227301932161591</v>
+        <v>2.27301932161591E-2</v>
       </c>
       <c r="N7">
-        <v>0.02259550642095904</v>
+        <v>2.259550642095904E-2</v>
       </c>
       <c r="O7">
-        <v>0.03281579461993572</v>
+        <v>3.2815794619935723E-2</v>
       </c>
       <c r="P7">
-        <v>0.02500295454975081</v>
+        <v>2.5002954549750812E-2</v>
       </c>
       <c r="Q7">
-        <v>0.02380191205574764</v>
+        <v>2.3801912055747641E-2</v>
       </c>
       <c r="R7">
-        <v>0.02621463384994414</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>2.621463384994414E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -876,55 +936,55 @@
         <v>23</v>
       </c>
       <c r="C8">
-        <v>5.576901459422047e-06</v>
+        <v>5.5769014594220471E-6</v>
       </c>
       <c r="D8">
-        <v>0.002305513249787062</v>
+        <v>2.305513249787062E-3</v>
       </c>
       <c r="E8">
-        <v>0.002329880360679927</v>
+        <v>2.3298803606799272E-3</v>
       </c>
       <c r="F8">
-        <v>0.002354863014550785</v>
+        <v>2.3548630145507851E-3</v>
       </c>
       <c r="G8">
-        <v>0.002303326790310831</v>
+        <v>2.3033267903108312E-3</v>
       </c>
       <c r="H8">
-        <v>0.002218579116009684</v>
+        <v>2.2185791160096841E-3</v>
       </c>
       <c r="I8">
-        <v>0.002518309767814958</v>
+        <v>2.5183097678149581E-3</v>
       </c>
       <c r="J8">
-        <v>0.002335509026661655</v>
+        <v>2.335509026661655E-3</v>
       </c>
       <c r="K8">
-        <v>0.002232502216034733</v>
+        <v>2.232502216034733E-3</v>
       </c>
       <c r="L8">
-        <v>0.002492952218942428</v>
+        <v>2.4929522189424281E-3</v>
       </c>
       <c r="M8">
-        <v>0.002194329732683129</v>
+        <v>2.1943297326831291E-3</v>
       </c>
       <c r="N8">
-        <v>0.002186662782582925</v>
+        <v>2.1866627825829249E-3</v>
       </c>
       <c r="O8">
-        <v>0.003051617031593461</v>
+        <v>3.0516170315934609E-3</v>
       </c>
       <c r="P8">
-        <v>0.002592689227247308</v>
+        <v>2.5926892272473078E-3</v>
       </c>
       <c r="Q8">
-        <v>0.002409213952763912</v>
+        <v>2.4092139527639119E-3</v>
       </c>
       <c r="R8">
-        <v>0.002686890534419161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>2.6868905344191612E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -932,55 +992,55 @@
         <v>24</v>
       </c>
       <c r="C9">
-        <v>1.783575322588274e-07</v>
+        <v>1.7835753225882739E-7</v>
       </c>
       <c r="D9">
-        <v>7.252153503513401e-05</v>
+        <v>7.2521535035134014E-5</v>
       </c>
       <c r="E9">
-        <v>7.269314215080662e-05</v>
+        <v>7.2693142150806619E-5</v>
       </c>
       <c r="F9">
-        <v>7.382677022717319e-05</v>
+        <v>7.3826770227173187E-5</v>
       </c>
       <c r="G9">
-        <v>7.129269190176233e-05</v>
+        <v>7.1292691901762332E-5</v>
       </c>
       <c r="H9">
-        <v>6.838728629163441e-05</v>
+        <v>6.8387286291634409E-5</v>
       </c>
       <c r="I9">
-        <v>8.136124173817177e-05</v>
+        <v>8.1361241738171766E-5</v>
       </c>
       <c r="J9">
-        <v>7.280296447731656e-05</v>
+        <v>7.280296447731656E-5</v>
       </c>
       <c r="K9">
-        <v>6.820229130617435e-05</v>
+        <v>6.8202291306174355E-5</v>
       </c>
       <c r="L9">
-        <v>7.903363155796698e-05</v>
+        <v>7.9033631557966975E-5</v>
       </c>
       <c r="M9">
-        <v>6.728726801349159e-05</v>
+        <v>6.7287268013491589E-5</v>
       </c>
       <c r="N9">
-        <v>6.706765628554759e-05</v>
+        <v>6.7067656285547595E-5</v>
       </c>
       <c r="O9">
-        <v>0.0001006067546281927</v>
+        <v>1.006067546281927E-4</v>
       </c>
       <c r="P9">
-        <v>8.334516237730238e-05</v>
+        <v>8.3345162377302382E-5</v>
       </c>
       <c r="Q9">
-        <v>7.581378758985397e-05</v>
+        <v>7.5813787589853972E-5</v>
       </c>
       <c r="R9">
-        <v>8.726533721089353e-05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>8.7265337210893525E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -988,55 +1048,55 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>1.304961983032702e-05</v>
+        <v>1.304961983032702E-5</v>
       </c>
       <c r="D10">
-        <v>2.589787789045612e-07</v>
+        <v>2.5897877890456122E-7</v>
       </c>
       <c r="E10">
-        <v>0.01343135445089884</v>
+        <v>1.343135445089884E-2</v>
       </c>
       <c r="F10">
-        <v>7.666540333777559e-06</v>
+        <v>7.6665403337775592E-6</v>
       </c>
       <c r="G10">
-        <v>0.01802016479996281</v>
+        <v>1.802016479996281E-2</v>
       </c>
       <c r="H10">
-        <v>0.01988775409408891</v>
+        <v>1.9887754094088911E-2</v>
       </c>
       <c r="I10">
-        <v>0.0005565962734915713</v>
+        <v>5.5659627349157132E-4</v>
       </c>
       <c r="J10">
-        <v>0.01584190635578375</v>
+        <v>1.5841906355783749E-2</v>
       </c>
       <c r="K10">
-        <v>3.924974388148136e-06</v>
+        <v>3.9249743881481363E-6</v>
       </c>
       <c r="L10">
-        <v>6.753326807267381e-06</v>
+        <v>6.7533268072673809E-6</v>
       </c>
       <c r="M10">
-        <v>0.02403927464862499</v>
+        <v>2.403927464862499E-2</v>
       </c>
       <c r="N10">
-        <v>0.0243748504324948</v>
+        <v>2.43748504324948E-2</v>
       </c>
       <c r="O10">
-        <v>1.40037501581052e-05</v>
+        <v>1.4003750158105199E-5</v>
       </c>
       <c r="P10">
-        <v>2.149905853136018e-05</v>
+        <v>2.1499058531360181E-5</v>
       </c>
       <c r="Q10">
-        <v>0.005115487671022973</v>
+        <v>5.1154876710229726E-3</v>
       </c>
       <c r="R10">
-        <v>9.807533262792854e-05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>9.8075332627928536E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1044,55 +1104,55 @@
         <v>26</v>
       </c>
       <c r="C11">
-        <v>1.471368055825684e-05</v>
+        <v>1.471368055825684E-5</v>
       </c>
       <c r="D11">
-        <v>0.01216202901160809</v>
+        <v>1.2162029011608091E-2</v>
       </c>
       <c r="E11">
-        <v>0.00316916927956187</v>
+        <v>3.1691692795618701E-3</v>
       </c>
       <c r="F11">
-        <v>0.009065590657611268</v>
+        <v>9.0655906576112676E-3</v>
       </c>
       <c r="G11">
-        <v>0.001505316968845085</v>
+        <v>1.5053169688450849E-3</v>
       </c>
       <c r="H11">
-        <v>0.001596448949479478</v>
+        <v>1.596448949479478E-3</v>
       </c>
       <c r="I11">
-        <v>0.01618340399355978</v>
+        <v>1.6183403993559779E-2</v>
       </c>
       <c r="J11">
-        <v>0.002348201013427813</v>
+        <v>2.348201013427813E-3</v>
       </c>
       <c r="K11">
-        <v>0.002263021242971051</v>
+        <v>2.2630212429710509E-3</v>
       </c>
       <c r="L11">
-        <v>0.01068898103342621</v>
+        <v>1.068898103342621E-2</v>
       </c>
       <c r="M11">
-        <v>0.000779411791814373</v>
+        <v>7.79411791814373E-4</v>
       </c>
       <c r="N11">
-        <v>0.0007498706707684357</v>
+        <v>7.4987067076843572E-4</v>
       </c>
       <c r="O11">
-        <v>0.004421887094769524</v>
+        <v>4.421887094769524E-3</v>
       </c>
       <c r="P11">
-        <v>0.01810602639353955</v>
+        <v>1.8106026393539549E-2</v>
       </c>
       <c r="Q11">
-        <v>0.006438589021409159</v>
+        <v>6.4385890214091589E-3</v>
       </c>
       <c r="R11">
-        <v>0.01150021528122051</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.150021528122051E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1100,55 +1160,55 @@
         <v>27</v>
       </c>
       <c r="C12">
-        <v>4.257134343672827e-07</v>
+        <v>4.2571343436728268E-7</v>
       </c>
       <c r="D12">
-        <v>5.802592049282737e-08</v>
+        <v>5.8025920492827367E-8</v>
       </c>
       <c r="E12">
-        <v>2.738672429907568e-05</v>
+        <v>2.7386724299075681E-5</v>
       </c>
       <c r="F12">
-        <v>1.491758855505893e-06</v>
+        <v>1.491758855505893E-6</v>
       </c>
       <c r="G12">
-        <v>1.646657307973939e-05</v>
+        <v>1.6466573079739389E-5</v>
       </c>
       <c r="H12">
-        <v>1.02791764056306e-05</v>
+        <v>1.02791764056306E-5</v>
       </c>
       <c r="I12">
-        <v>2.872248921584127e-05</v>
+        <v>2.8722489215841269E-5</v>
       </c>
       <c r="J12">
-        <v>2.018192473003266e-05</v>
+        <v>2.0181924730032659E-5</v>
       </c>
       <c r="K12">
-        <v>1.61849902572622e-07</v>
+        <v>1.6184990257262201E-7</v>
       </c>
       <c r="L12">
-        <v>1.395024056492129e-05</v>
+        <v>1.3950240564921291E-5</v>
       </c>
       <c r="M12">
-        <v>1.207747052491957e-05</v>
+        <v>1.2077470524919571E-5</v>
       </c>
       <c r="N12">
-        <v>1.364451229178234e-05</v>
+        <v>1.3644512291782339E-5</v>
       </c>
       <c r="O12">
-        <v>0.005347544731334772</v>
+        <v>5.3475447313347723E-3</v>
       </c>
       <c r="P12">
-        <v>1.135451828123449e-05</v>
+        <v>1.135451828123449E-5</v>
       </c>
       <c r="Q12">
-        <v>2.403145703857645e-05</v>
+        <v>2.403145703857645E-5</v>
       </c>
       <c r="R12">
-        <v>0.0001586574821518646</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.5865748215186461E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1156,55 +1216,55 @@
         <v>28</v>
       </c>
       <c r="C13">
-        <v>2.578387497362463e-07</v>
+        <v>2.5783874973624628E-7</v>
       </c>
       <c r="D13">
-        <v>3.59405024732213e-07</v>
+        <v>3.5940502473221299E-7</v>
       </c>
       <c r="E13">
-        <v>3.55039439757478e-05</v>
+        <v>3.5503943975747798E-5</v>
       </c>
       <c r="F13">
-        <v>5.39747350726284e-06</v>
+        <v>5.3974735072628404E-6</v>
       </c>
       <c r="G13">
-        <v>7.758138526068451e-05</v>
+        <v>7.7581385260684508E-5</v>
       </c>
       <c r="H13">
-        <v>2.531753550822266e-05</v>
+        <v>2.531753550822266E-5</v>
       </c>
       <c r="I13">
-        <v>8.111174494867881e-05</v>
+        <v>8.111174494867881E-5</v>
       </c>
       <c r="J13">
-        <v>3.587541565844774e-05</v>
+        <v>3.5875415658447743E-5</v>
       </c>
       <c r="K13">
-        <v>1.422362838132656e-06</v>
+        <v>1.422362838132656E-6</v>
       </c>
       <c r="L13">
-        <v>0.0001414867371962793</v>
+        <v>1.414867371962793E-4</v>
       </c>
       <c r="M13">
-        <v>1.953207143460537e-05</v>
+        <v>1.9532071434605371E-5</v>
       </c>
       <c r="N13">
-        <v>1.009822308326635e-05</v>
+        <v>1.009822308326635E-5</v>
       </c>
       <c r="O13">
-        <v>4.468679598497542e-05</v>
+        <v>4.4686795984975421E-5</v>
       </c>
       <c r="P13">
-        <v>0.00082194083244867</v>
+        <v>8.2194083244866995E-4</v>
       </c>
       <c r="Q13">
-        <v>0.0005084787131212395</v>
+        <v>5.084787131212395E-4</v>
       </c>
       <c r="R13">
-        <v>7.797768707691361e-05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>7.7977687076913609E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1212,34 +1272,34 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>0.0003183094919391673</v>
+        <v>3.1830949193916732E-4</v>
       </c>
       <c r="D14">
-        <v>0.1358989677474705</v>
+        <v>0.13589896774747051</v>
       </c>
       <c r="E14">
-        <v>0.1286182166660489</v>
+        <v>0.12861821666604889</v>
       </c>
       <c r="F14">
         <v>0.1343163526104442</v>
       </c>
       <c r="G14">
-        <v>0.1254399239930289</v>
+        <v>0.12543992399302889</v>
       </c>
       <c r="H14">
-        <v>0.1246818400818654</v>
+        <v>0.12468184008186541</v>
       </c>
       <c r="I14">
         <v>0.1430135858686552</v>
       </c>
       <c r="J14">
-        <v>0.1279901355083154</v>
+        <v>0.12799013550831539</v>
       </c>
       <c r="K14">
         <v>0.1278859484289622</v>
       </c>
       <c r="L14">
-        <v>0.1373108829827938</v>
+        <v>0.13731088298279381</v>
       </c>
       <c r="M14">
         <v>0.1222427213382182</v>
@@ -1251,16 +1311,16 @@
         <v>0.1439862129369518</v>
       </c>
       <c r="P14">
-        <v>0.1419639496962588</v>
+        <v>0.14196394969625881</v>
       </c>
       <c r="Q14">
-        <v>0.1344591905633876</v>
+        <v>0.13445919056338759</v>
       </c>
       <c r="R14">
-        <v>0.1442184086166561</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>0.14421840861665611</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1268,55 +1328,55 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>2.141361505420618e-05</v>
+        <v>2.1413615054206181E-5</v>
       </c>
       <c r="D15">
-        <v>0.009076238857473619</v>
+        <v>9.0762388574736185E-3</v>
       </c>
       <c r="E15">
-        <v>0.008971197683688691</v>
+        <v>8.9711976836886909E-3</v>
       </c>
       <c r="F15">
-        <v>0.009023109768764305</v>
+        <v>9.0231097687643053E-3</v>
       </c>
       <c r="G15">
-        <v>0.008879483002794729</v>
+        <v>8.8794830027947285E-3</v>
       </c>
       <c r="H15">
-        <v>0.008879404489717075</v>
+        <v>8.8794044897170746E-3</v>
       </c>
       <c r="I15">
-        <v>0.009265280391328521</v>
+        <v>9.2652803913285207E-3</v>
       </c>
       <c r="J15">
-        <v>0.008958845146229343</v>
+        <v>8.9588451462293429E-3</v>
       </c>
       <c r="K15">
-        <v>0.008826543441969689</v>
+        <v>8.8265434419696892E-3</v>
       </c>
       <c r="L15">
-        <v>0.00907475303362941</v>
+        <v>9.0747530336294097E-3</v>
       </c>
       <c r="M15">
-        <v>0.008812297802545284</v>
+        <v>8.8122978025452839E-3</v>
       </c>
       <c r="N15">
-        <v>0.008821681591704147</v>
+        <v>8.8216815917041471E-3</v>
       </c>
       <c r="O15">
-        <v>0.009172241623152281</v>
+        <v>9.1722416231522809E-3</v>
       </c>
       <c r="P15">
-        <v>0.009151752917024981</v>
+        <v>9.1517529170249811E-3</v>
       </c>
       <c r="Q15">
-        <v>0.009058579114009693</v>
+        <v>9.0585791140096929E-3</v>
       </c>
       <c r="R15">
-        <v>0.00926691873052414</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>9.2669187305241402E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1324,55 +1384,55 @@
         <v>31</v>
       </c>
       <c r="C16">
-        <v>3.73298306122681e-06</v>
+        <v>3.73298306122681E-6</v>
       </c>
       <c r="D16">
-        <v>0.001660920400853583</v>
+        <v>1.6609204008535829E-3</v>
       </c>
       <c r="E16">
-        <v>0.001752724433307309</v>
+        <v>1.7527244333073091E-3</v>
       </c>
       <c r="F16">
-        <v>0.001676969132051967</v>
+        <v>1.676969132051967E-3</v>
       </c>
       <c r="G16">
-        <v>0.001802350500238976</v>
+        <v>1.802350500238976E-3</v>
       </c>
       <c r="H16">
-        <v>0.001839750244515391</v>
+        <v>1.839750244515391E-3</v>
       </c>
       <c r="I16">
-        <v>0.001413995653604256</v>
+        <v>1.4139956536042559E-3</v>
       </c>
       <c r="J16">
-        <v>0.001749142144235107</v>
+        <v>1.7491421442351069E-3</v>
       </c>
       <c r="K16">
-        <v>0.001794327517114221</v>
+        <v>1.7943275171142211E-3</v>
       </c>
       <c r="L16">
-        <v>0.00156835514697059</v>
+        <v>1.56835514697059E-3</v>
       </c>
       <c r="M16">
-        <v>0.001877000754638883</v>
+        <v>1.877000754638883E-3</v>
       </c>
       <c r="N16">
-        <v>0.001871433710896246</v>
+        <v>1.871433710896246E-3</v>
       </c>
       <c r="O16">
-        <v>0.001105921436277554</v>
+        <v>1.105921436277554E-3</v>
       </c>
       <c r="P16">
-        <v>0.001447618584579463</v>
+        <v>1.4476185845794631E-3</v>
       </c>
       <c r="Q16">
-        <v>0.001614791378776417</v>
+        <v>1.6147913787764171E-3</v>
       </c>
       <c r="R16">
-        <v>0.001301906009688702</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.3019060096887019E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1380,55 +1440,55 @@
         <v>32</v>
       </c>
       <c r="C17">
-        <v>0.0001467265822313285</v>
+        <v>1.4672658223132849E-4</v>
       </c>
       <c r="D17">
-        <v>0.06597747342412816</v>
+        <v>6.5977473424128158E-2</v>
       </c>
       <c r="E17">
-        <v>0.07017983145570626</v>
+        <v>7.0179831455706262E-2</v>
       </c>
       <c r="F17">
-        <v>0.0682886512541115</v>
+        <v>6.8288651254111501E-2</v>
       </c>
       <c r="G17">
-        <v>0.07343545785515861</v>
+        <v>7.3435457855158606E-2</v>
       </c>
       <c r="H17">
-        <v>0.07420614485400651</v>
+        <v>7.4206144854006506E-2</v>
       </c>
       <c r="I17">
-        <v>0.05356626447499225</v>
+        <v>5.3566264474992249E-2</v>
       </c>
       <c r="J17">
-        <v>0.07026023364173994</v>
+        <v>7.0260233641739944E-2</v>
       </c>
       <c r="K17">
-        <v>0.07860013272710734</v>
+        <v>7.8600132727107336E-2</v>
       </c>
       <c r="L17">
-        <v>0.06360189463641883</v>
+        <v>6.3601894636418826E-2</v>
       </c>
       <c r="M17">
-        <v>0.07642599383820727</v>
+        <v>7.6425993838207265E-2</v>
       </c>
       <c r="N17">
-        <v>0.07608782901763776</v>
+        <v>7.6087829017637762E-2</v>
       </c>
       <c r="O17">
-        <v>0.05081922302970637</v>
+        <v>5.0819223029706373E-2</v>
       </c>
       <c r="P17">
-        <v>0.05650125012068195</v>
+        <v>5.6501250120681953E-2</v>
       </c>
       <c r="Q17">
-        <v>0.06523453691432089</v>
+        <v>6.5234536914320893E-2</v>
       </c>
       <c r="R17">
-        <v>0.05165906170269749</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>5.165906170269749E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1436,52 +1496,52 @@
         <v>33</v>
       </c>
       <c r="C18">
-        <v>2.794348976962315e-05</v>
+        <v>2.7943489769623149E-5</v>
       </c>
       <c r="D18">
-        <v>0.01283169918572957</v>
+        <v>1.2831699185729571E-2</v>
       </c>
       <c r="E18">
-        <v>0.01343976610730426</v>
+        <v>1.343976610730426E-2</v>
       </c>
       <c r="F18">
-        <v>0.01329752526861937</v>
+        <v>1.3297525268619371E-2</v>
       </c>
       <c r="G18">
-        <v>0.01407491248479108</v>
+        <v>1.4074912484791081E-2</v>
       </c>
       <c r="H18">
-        <v>0.01422206224100785</v>
+        <v>1.422206224100785E-2</v>
       </c>
       <c r="I18">
-        <v>0.01024979144846247</v>
+        <v>1.024979144846247E-2</v>
       </c>
       <c r="J18">
-        <v>0.01346309667741924</v>
+        <v>1.346309667741924E-2</v>
       </c>
       <c r="K18">
-        <v>0.01542959077667315</v>
+        <v>1.5429590776673149E-2</v>
       </c>
       <c r="L18">
-        <v>0.01231980977098714</v>
+        <v>1.231980977098714E-2</v>
       </c>
       <c r="M18">
-        <v>0.01463677343829288</v>
+        <v>1.463677343829288E-2</v>
       </c>
       <c r="N18">
-        <v>0.01457017877015254</v>
+        <v>1.457017877015254E-2</v>
       </c>
       <c r="O18">
-        <v>0.009067749835015397</v>
+        <v>9.0677498350153971E-3</v>
       </c>
       <c r="P18">
-        <v>0.01084576170388322</v>
+        <v>1.084576170388322E-2</v>
       </c>
       <c r="Q18">
-        <v>0.01251421539790032</v>
+        <v>1.2514215397900321E-2</v>
       </c>
       <c r="R18">
-        <v>0.009862758965419096</v>
+        <v>9.8627589654190963E-3</v>
       </c>
     </row>
   </sheetData>

--- a/generated_files/gsa_results/cge_N500/sobol_total.xlsx
+++ b/generated_files/gsa_results/cge_N500/sobol_total.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andpa\OneDrive - University College London\S4CE\GSA\Geothermal\generated_files\gsa_results\cge_N500\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_FFC65FC08439EEFEAC170B230309495B68C4DD1F" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{44B1F4B8-D205-4431-9F8A-847CD648A755}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_FFC65FC08439EEFEAC170B230309495B68C4DD1F" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{44F1A6A0-6036-4DFE-8781-D1CD1552977A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/generated_files/gsa_results/cge_N500/sobol_total.xlsx
+++ b/generated_files/gsa_results/cge_N500/sobol_total.xlsx
@@ -1,29 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andpa\OneDrive - University College London\S4CE\GSA\Geothermal\generated_files\gsa_results\cge_N500\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_FFC65FC08439EEFEAC170B230309495B68C4DD1F" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{44F1A6A0-6036-4DFE-8781-D1CD1552977A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -135,8 +121,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,14 +185,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -253,7 +231,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -285,27 +263,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -337,24 +297,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -530,16 +472,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:R18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,7 +532,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,55 +540,55 @@
         <v>17</v>
       </c>
       <c r="C2">
-        <v>1.8646999346609129E-3</v>
+        <v>0.001864449528960268</v>
       </c>
       <c r="D2">
-        <v>0.69560507777546876</v>
+        <v>0.695614904453183</v>
       </c>
       <c r="E2">
-        <v>0.68789954555475652</v>
+        <v>0.6879083186650828</v>
       </c>
       <c r="F2">
-        <v>0.69389372047736275</v>
+        <v>0.6939037663461303</v>
       </c>
       <c r="G2">
-        <v>0.68138295898207712</v>
+        <v>0.6813914354884004</v>
       </c>
       <c r="H2">
-        <v>0.6797781199959303</v>
+        <v>0.6797861774010091</v>
       </c>
       <c r="I2">
-        <v>0.71099716437137961</v>
+        <v>0.7110072959177063</v>
       </c>
       <c r="J2">
-        <v>0.68744460072002667</v>
+        <v>0.6874532379165621</v>
       </c>
       <c r="K2">
-        <v>0.6846635408335453</v>
+        <v>0.6846731492828578</v>
       </c>
       <c r="L2">
-        <v>0.69893213265450294</v>
+        <v>0.6989426730598582</v>
       </c>
       <c r="M2">
-        <v>0.67509053998806667</v>
+        <v>0.6750983349779711</v>
       </c>
       <c r="N2">
-        <v>0.67597134832485062</v>
+        <v>0.6759790773966858</v>
       </c>
       <c r="O2">
-        <v>0.73637680945107675</v>
+        <v>0.7363892862510273</v>
       </c>
       <c r="P2">
-        <v>0.70127050428854221</v>
+        <v>0.7012813927506483</v>
       </c>
       <c r="Q2">
-        <v>0.69593192257502168</v>
+        <v>0.6959415041807691</v>
       </c>
       <c r="R2">
-        <v>0.71899775666453347</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+        <v>0.7190084502440683</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -656,55 +596,55 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>6.941933760932406E-4</v>
+        <v>0.0006941075079371087</v>
       </c>
       <c r="D3">
-        <v>0.30510637471325852</v>
+        <v>0.3051106987184121</v>
       </c>
       <c r="E3">
-        <v>0.32630091817568491</v>
+        <v>0.3263057282377826</v>
       </c>
       <c r="F3">
-        <v>0.31362666018762769</v>
+        <v>0.3136312947988434</v>
       </c>
       <c r="G3">
-        <v>0.34050071205221583</v>
+        <v>0.3405058135203322</v>
       </c>
       <c r="H3">
-        <v>0.34506135699097668</v>
+        <v>0.3450663943641079</v>
       </c>
       <c r="I3">
-        <v>0.25109706930537939</v>
+        <v>0.2511004133828664</v>
       </c>
       <c r="J3">
-        <v>0.32684612615102898</v>
+        <v>0.3268509512235449</v>
       </c>
       <c r="K3">
-        <v>0.35379541996904812</v>
+        <v>0.3538007968177842</v>
       </c>
       <c r="L3">
-        <v>0.29236842351312559</v>
+        <v>0.292372752481758</v>
       </c>
       <c r="M3">
-        <v>0.35476826865113431</v>
+        <v>0.3547735119828914</v>
       </c>
       <c r="N3">
-        <v>0.35335109744413518</v>
+        <v>0.3533562875357136</v>
       </c>
       <c r="O3">
-        <v>0.2178419868273031</v>
+        <v>0.2178455057916373</v>
       </c>
       <c r="P3">
-        <v>0.2627636927845457</v>
+        <v>0.2627673863086823</v>
       </c>
       <c r="Q3">
-        <v>0.30190417342752202</v>
+        <v>0.3019084357760546</v>
       </c>
       <c r="R3">
-        <v>0.23811954562832791</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+        <v>0.2381228693913224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -712,55 +652,55 @@
         <v>19</v>
       </c>
       <c r="C4">
-        <v>1.0983340783211361E-5</v>
+        <v>1.0982128172104E-05</v>
       </c>
       <c r="D4">
-        <v>3.8322854828143058E-3</v>
+        <v>0.003832396431919421</v>
       </c>
       <c r="E4">
-        <v>2.1321039033160398E-3</v>
+        <v>0.002132161362596971</v>
       </c>
       <c r="F4">
-        <v>3.117064050393914E-3</v>
+        <v>0.003117155142491999</v>
       </c>
       <c r="G4">
-        <v>1.280335169115419E-3</v>
+        <v>0.001280369060350757</v>
       </c>
       <c r="H4">
-        <v>1.07927382619653E-3</v>
+        <v>0.001079301850372569</v>
       </c>
       <c r="I4">
-        <v>9.8876580584002921E-3</v>
+        <v>0.009887938194946528</v>
       </c>
       <c r="J4">
-        <v>2.118574812967915E-3</v>
+        <v>0.002118631313295184</v>
       </c>
       <c r="K4">
-        <v>7.8876828766486818E-4</v>
+        <v>0.0007887907930576079</v>
       </c>
       <c r="L4">
-        <v>5.0020392431866928E-3</v>
+        <v>0.005002186777129895</v>
       </c>
       <c r="M4">
-        <v>6.4402915651965863E-4</v>
+        <v>0.0006440456360016109</v>
       </c>
       <c r="N4">
-        <v>7.0162130078542926E-4</v>
+        <v>0.0007016391720584054</v>
       </c>
       <c r="O4">
-        <v>6.972389466003385E-3</v>
+        <v>0.006972594224751689</v>
       </c>
       <c r="P4">
-        <v>8.3217131077480081E-3</v>
+        <v>0.008321958753541744</v>
       </c>
       <c r="Q4">
-        <v>4.1261122886575149E-3</v>
+        <v>0.004126226148856</v>
       </c>
       <c r="R4">
-        <v>1.2025738372184231E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+        <v>0.01202608247633833</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -768,55 +708,55 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>3.637249305726898E-5</v>
+        <v>3.632063397952466E-05</v>
       </c>
       <c r="D5">
-        <v>1.5892991680807631E-2</v>
+        <v>0.01587334345193761</v>
       </c>
       <c r="E5">
-        <v>1.595142727366905E-2</v>
+        <v>0.01593139815762423</v>
       </c>
       <c r="F5">
-        <v>1.6017962867102092E-2</v>
+        <v>0.01599790094753564</v>
       </c>
       <c r="G5">
-        <v>1.6063216330336891E-2</v>
+        <v>0.01604312286187779</v>
       </c>
       <c r="H5">
-        <v>1.613809738700267E-2</v>
+        <v>0.01611831904547542</v>
       </c>
       <c r="I5">
-        <v>1.4916324673609239E-2</v>
+        <v>0.01489683090476087</v>
       </c>
       <c r="J5">
-        <v>1.5929458146023989E-2</v>
+        <v>0.01590939597715881</v>
       </c>
       <c r="K5">
-        <v>1.6641519180627801E-2</v>
+        <v>0.0166211688195164</v>
       </c>
       <c r="L5">
-        <v>1.560501643257442E-2</v>
+        <v>0.01558482334395238</v>
       </c>
       <c r="M5">
-        <v>1.6214629300597218E-2</v>
+        <v>0.01619482690557495</v>
       </c>
       <c r="N5">
-        <v>1.6205463766457751E-2</v>
+        <v>0.01618570323113144</v>
       </c>
       <c r="O5">
-        <v>1.493781176973286E-2</v>
+        <v>0.01491591273043724</v>
       </c>
       <c r="P5">
-        <v>1.493831249368543E-2</v>
+        <v>0.01491854943571871</v>
       </c>
       <c r="Q5">
-        <v>1.5581673001043491E-2</v>
+        <v>0.01556180975539918</v>
       </c>
       <c r="R5">
-        <v>1.473170276094979E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+        <v>0.01471162967076754</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -824,7 +764,7 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>0.97630647646808</v>
+        <v>0.976306464191274</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -872,7 +812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -880,55 +820,55 @@
         <v>22</v>
       </c>
       <c r="C7">
-        <v>5.3624835497980161E-5</v>
+        <v>5.360676268459922E-05</v>
       </c>
       <c r="D7">
-        <v>2.1575111618247871E-2</v>
+        <v>0.02157061986596126</v>
       </c>
       <c r="E7">
-        <v>2.3641750568148889E-2</v>
+        <v>0.0236370896278412</v>
       </c>
       <c r="F7">
-        <v>2.2617158562171249E-2</v>
+        <v>0.02261252851068612</v>
       </c>
       <c r="G7">
-        <v>2.3825154698973131E-2</v>
+        <v>0.02382053425639793</v>
       </c>
       <c r="H7">
-        <v>2.2656707635125329E-2</v>
+        <v>0.02265230428725428</v>
       </c>
       <c r="I7">
-        <v>2.3756606790903051E-2</v>
+        <v>0.02375158991061766</v>
       </c>
       <c r="J7">
-        <v>2.3861936003547801E-2</v>
+        <v>0.02385725128010755</v>
       </c>
       <c r="K7">
-        <v>2.1959550840816109E-2</v>
+        <v>0.02195520022738469</v>
       </c>
       <c r="L7">
-        <v>2.4255496657644569E-2</v>
+        <v>0.02425052473376019</v>
       </c>
       <c r="M7">
-        <v>2.27301932161591E-2</v>
+        <v>0.02272582995947001</v>
       </c>
       <c r="N7">
-        <v>2.259550642095904E-2</v>
+        <v>0.02259116344831658</v>
       </c>
       <c r="O7">
-        <v>3.2815794619935723E-2</v>
+        <v>0.03280932711947657</v>
       </c>
       <c r="P7">
-        <v>2.5002954549750812E-2</v>
+        <v>0.02499775147635419</v>
       </c>
       <c r="Q7">
-        <v>2.3801912055747641E-2</v>
+        <v>0.02379710374015668</v>
       </c>
       <c r="R7">
-        <v>2.621463384994414E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+        <v>0.02620918506183728</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -936,55 +876,55 @@
         <v>23</v>
       </c>
       <c r="C8">
-        <v>5.5769014594220471E-6</v>
+        <v>5.575250968583035E-06</v>
       </c>
       <c r="D8">
-        <v>2.305513249787062E-3</v>
+        <v>0.002305141759520018</v>
       </c>
       <c r="E8">
-        <v>2.3298803606799272E-3</v>
+        <v>0.002329504033625987</v>
       </c>
       <c r="F8">
-        <v>2.3548630145507851E-3</v>
+        <v>0.002354484258814444</v>
       </c>
       <c r="G8">
-        <v>2.3033267903108312E-3</v>
+        <v>0.002302952310809116</v>
       </c>
       <c r="H8">
-        <v>2.2185791160096841E-3</v>
+        <v>0.002218214315507332</v>
       </c>
       <c r="I8">
-        <v>2.5183097678149581E-3</v>
+        <v>0.002517922553426557</v>
       </c>
       <c r="J8">
-        <v>2.335509026661655E-3</v>
+        <v>0.002335132350109949</v>
       </c>
       <c r="K8">
-        <v>2.232502216034733E-3</v>
+        <v>0.00223213213686484</v>
       </c>
       <c r="L8">
-        <v>2.4929522189424281E-3</v>
+        <v>0.002492560833276985</v>
       </c>
       <c r="M8">
-        <v>2.1943297326831291E-3</v>
+        <v>0.002193966842869311</v>
       </c>
       <c r="N8">
-        <v>2.1866627825829249E-3</v>
+        <v>0.002186301001694411</v>
       </c>
       <c r="O8">
-        <v>3.0516170315934609E-3</v>
+        <v>0.003051164196286191</v>
       </c>
       <c r="P8">
-        <v>2.5926892272473078E-3</v>
+        <v>0.002592292205663167</v>
       </c>
       <c r="Q8">
-        <v>2.4092139527639119E-3</v>
+        <v>0.002408831994464989</v>
       </c>
       <c r="R8">
-        <v>2.6868905344191612E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+        <v>0.002686485339868953</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -992,55 +932,55 @@
         <v>24</v>
       </c>
       <c r="C9">
-        <v>1.7835753225882739E-7</v>
+        <v>1.783062086815781E-07</v>
       </c>
       <c r="D9">
-        <v>7.2521535035134014E-5</v>
+        <v>7.251093451667158E-05</v>
       </c>
       <c r="E9">
-        <v>7.2693142150806619E-5</v>
+        <v>7.26816708759651E-05</v>
       </c>
       <c r="F9">
-        <v>7.3826770227173187E-5</v>
+        <v>7.381598874898087E-05</v>
       </c>
       <c r="G9">
-        <v>7.1292691901762332E-5</v>
+        <v>7.128123418111447E-05</v>
       </c>
       <c r="H9">
-        <v>6.8387286291634409E-5</v>
+        <v>6.837607518008455E-05</v>
       </c>
       <c r="I9">
-        <v>8.1361241738171766E-5</v>
+        <v>8.134983818727258E-05</v>
       </c>
       <c r="J9">
-        <v>7.280296447731656E-5</v>
+        <v>7.279143403375031E-05</v>
       </c>
       <c r="K9">
-        <v>6.8202291306174355E-5</v>
+        <v>6.819202254605508E-05</v>
       </c>
       <c r="L9">
-        <v>7.9033631557966975E-5</v>
+        <v>7.902244343347839E-05</v>
       </c>
       <c r="M9">
-        <v>6.7287268013491589E-5</v>
+        <v>6.727605377107627E-05</v>
       </c>
       <c r="N9">
-        <v>6.7067656285547595E-5</v>
+        <v>6.705646463945545E-05</v>
       </c>
       <c r="O9">
-        <v>1.006067546281927E-4</v>
+        <v>0.0001005932535405369</v>
       </c>
       <c r="P9">
-        <v>8.3345162377302382E-5</v>
+        <v>8.333373098904083E-05</v>
       </c>
       <c r="Q9">
-        <v>7.5813787589853972E-5</v>
+        <v>7.580251163001398E-05</v>
       </c>
       <c r="R9">
-        <v>8.7265337210893525E-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+        <v>8.725347833346404E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1048,55 +988,55 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>1.304961983032702E-5</v>
+        <v>1.304786727258903E-05</v>
       </c>
       <c r="D10">
-        <v>2.5897877890456122E-7</v>
+        <v>2.589800639794612E-07</v>
       </c>
       <c r="E10">
-        <v>1.343135445089884E-2</v>
+        <v>0.01343142683457365</v>
       </c>
       <c r="F10">
-        <v>7.6665403337775592E-6</v>
+        <v>7.666580879160596E-06</v>
       </c>
       <c r="G10">
-        <v>1.802016479996281E-2</v>
+        <v>0.0180202613464488</v>
       </c>
       <c r="H10">
-        <v>1.9887754094088911E-2</v>
+        <v>0.01988785371277238</v>
       </c>
       <c r="I10">
-        <v>5.5659627349157132E-4</v>
+        <v>0.0005565988934451758</v>
       </c>
       <c r="J10">
-        <v>1.5841906355783749E-2</v>
+        <v>0.01584199073713848</v>
       </c>
       <c r="K10">
-        <v>3.9249743881481363E-6</v>
+        <v>3.924992571399497E-06</v>
       </c>
       <c r="L10">
-        <v>6.7533268072673809E-6</v>
+        <v>6.753364110200925E-06</v>
       </c>
       <c r="M10">
-        <v>2.403927464862499E-2</v>
+        <v>0.02403939434596742</v>
       </c>
       <c r="N10">
-        <v>2.43748504324948E-2</v>
+        <v>0.02437496941508534</v>
       </c>
       <c r="O10">
-        <v>1.4003750158105199E-5</v>
+        <v>1.400382543059732E-05</v>
       </c>
       <c r="P10">
-        <v>2.1499058531360181E-5</v>
+        <v>2.149917753130937E-05</v>
       </c>
       <c r="Q10">
-        <v>5.1154876710229726E-3</v>
+        <v>0.005115513412553913</v>
       </c>
       <c r="R10">
-        <v>9.8075332627928536E-5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+        <v>9.807579461990313E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1104,55 +1044,55 @@
         <v>26</v>
       </c>
       <c r="C11">
-        <v>1.471368055825684E-5</v>
+        <v>1.471184452855972E-05</v>
       </c>
       <c r="D11">
-        <v>1.2162029011608091E-2</v>
+        <v>0.01216218534854626</v>
       </c>
       <c r="E11">
-        <v>3.1691692795618701E-3</v>
+        <v>0.003169205928244798</v>
       </c>
       <c r="F11">
-        <v>9.0655906576112676E-3</v>
+        <v>0.009065711517283742</v>
       </c>
       <c r="G11">
-        <v>1.5053169688450849E-3</v>
+        <v>0.001505334083086294</v>
       </c>
       <c r="H11">
-        <v>1.596448949479478E-3</v>
+        <v>0.001596466283509619</v>
       </c>
       <c r="I11">
-        <v>1.6183403993559779E-2</v>
+        <v>0.01618359788623698</v>
       </c>
       <c r="J11">
-        <v>2.348201013427813E-3</v>
+        <v>0.00234822777732332</v>
       </c>
       <c r="K11">
-        <v>2.2630212429710509E-3</v>
+        <v>0.002263051522487832</v>
       </c>
       <c r="L11">
-        <v>1.068898103342621E-2</v>
+        <v>0.0106891249971926</v>
       </c>
       <c r="M11">
-        <v>7.79411791814373E-4</v>
+        <v>0.0007794201199175881</v>
       </c>
       <c r="N11">
-        <v>7.4987067076843572E-4</v>
+        <v>0.000749878599797514</v>
       </c>
       <c r="O11">
-        <v>4.421887094769524E-3</v>
+        <v>0.004421948605191341</v>
       </c>
       <c r="P11">
-        <v>1.8106026393539549E-2</v>
+        <v>0.01810626240756608</v>
       </c>
       <c r="Q11">
-        <v>6.4385890214091589E-3</v>
+        <v>0.006438665290590631</v>
       </c>
       <c r="R11">
-        <v>1.150021528122051E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+        <v>0.01150035966373989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1160,55 +1100,55 @@
         <v>27</v>
       </c>
       <c r="C12">
-        <v>4.2571343436728268E-7</v>
+        <v>4.256549885947629E-07</v>
       </c>
       <c r="D12">
-        <v>5.8025920492827367E-8</v>
+        <v>5.80260339864477E-08</v>
       </c>
       <c r="E12">
-        <v>2.7386724299075681E-5</v>
+        <v>2.738672173859423E-05</v>
       </c>
       <c r="F12">
-        <v>1.491758855505893E-6</v>
+        <v>1.491762191070925E-06</v>
       </c>
       <c r="G12">
-        <v>1.6466573079739389E-5</v>
+        <v>1.646656407935696E-05</v>
       </c>
       <c r="H12">
-        <v>1.02791764056306E-5</v>
+        <v>1.027916568462996E-05</v>
       </c>
       <c r="I12">
-        <v>2.8722489215841269E-5</v>
+        <v>2.872252457967692E-05</v>
       </c>
       <c r="J12">
-        <v>2.0181924730032659E-5</v>
+        <v>2.018191708156723E-05</v>
       </c>
       <c r="K12">
-        <v>1.6184990257262201E-7</v>
+        <v>1.618501608553102E-07</v>
       </c>
       <c r="L12">
-        <v>1.3950240564921291E-5</v>
+        <v>1.395027508197245E-05</v>
       </c>
       <c r="M12">
-        <v>1.2077470524919571E-5</v>
+        <v>1.207745363749341E-05</v>
       </c>
       <c r="N12">
-        <v>1.3644512291782339E-5</v>
+        <v>1.364449156007927E-05</v>
       </c>
       <c r="O12">
-        <v>5.3475447313347723E-3</v>
+        <v>0.005347557534333986</v>
       </c>
       <c r="P12">
-        <v>1.135451828123449E-5</v>
+        <v>1.135454603976269E-05</v>
       </c>
       <c r="Q12">
-        <v>2.403145703857645E-5</v>
+        <v>2.403146961075522E-05</v>
       </c>
       <c r="R12">
-        <v>1.5865748215186461E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+        <v>0.0001586577217436626</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1216,55 +1156,55 @@
         <v>28</v>
       </c>
       <c r="C13">
-        <v>2.5783874973624628E-7</v>
+        <v>2.578004270735627E-07</v>
       </c>
       <c r="D13">
-        <v>3.5940502473221299E-7</v>
+        <v>3.594016573241712E-07</v>
       </c>
       <c r="E13">
-        <v>3.5503943975747798E-5</v>
+        <v>3.550354426819661E-05</v>
       </c>
       <c r="F13">
-        <v>5.3974735072628404E-6</v>
+        <v>5.397424710249495E-06</v>
       </c>
       <c r="G13">
-        <v>7.7581385260684508E-5</v>
+        <v>7.758048329890308E-05</v>
       </c>
       <c r="H13">
-        <v>2.531753550822266E-5</v>
+        <v>2.531722576804828E-05</v>
       </c>
       <c r="I13">
-        <v>8.111174494867881E-5</v>
+        <v>8.111094511776706E-05</v>
       </c>
       <c r="J13">
-        <v>3.5875415658447743E-5</v>
+        <v>3.58750015551596E-05</v>
       </c>
       <c r="K13">
-        <v>1.422362838132656E-6</v>
+        <v>1.422349023273766E-06</v>
       </c>
       <c r="L13">
-        <v>1.414867371962793E-4</v>
+        <v>0.0001414855294608158</v>
       </c>
       <c r="M13">
-        <v>1.9532071434605371E-5</v>
+        <v>1.95318251967664E-05</v>
       </c>
       <c r="N13">
-        <v>1.009822308326635E-5</v>
+        <v>1.009809417969891E-05</v>
       </c>
       <c r="O13">
-        <v>4.4686795984975421E-5</v>
+        <v>4.468640049240868E-05</v>
       </c>
       <c r="P13">
-        <v>8.2194083244866995E-4</v>
+        <v>0.0008219341684764645</v>
       </c>
       <c r="Q13">
-        <v>5.084787131212395E-4</v>
+        <v>0.0005084735412487097</v>
       </c>
       <c r="R13">
-        <v>7.7977687076913609E-5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+        <v>7.79769394459638E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1272,55 +1212,55 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>3.1830949193916732E-4</v>
+        <v>0.0003182693264775161</v>
       </c>
       <c r="D14">
-        <v>0.13589896774747051</v>
+        <v>0.1359017626635301</v>
       </c>
       <c r="E14">
-        <v>0.12861821666604889</v>
+        <v>0.1286206872703597</v>
       </c>
       <c r="F14">
-        <v>0.1343163526104442</v>
+        <v>0.1343191147619993</v>
       </c>
       <c r="G14">
-        <v>0.12543992399302889</v>
+        <v>0.1254422385006912</v>
       </c>
       <c r="H14">
-        <v>0.12468184008186541</v>
+        <v>0.1246840619046793</v>
       </c>
       <c r="I14">
-        <v>0.1430135858686552</v>
+        <v>0.1430167823040249</v>
       </c>
       <c r="J14">
-        <v>0.12799013550831539</v>
+        <v>0.1279925674153014</v>
       </c>
       <c r="K14">
-        <v>0.1278859484289622</v>
+        <v>0.1278882908868002</v>
       </c>
       <c r="L14">
-        <v>0.13731088298279381</v>
+        <v>0.1373138680527742</v>
       </c>
       <c r="M14">
-        <v>0.1222427213382182</v>
+        <v>0.1222448319349613</v>
       </c>
       <c r="N14">
-        <v>0.1223986218089028</v>
+        <v>0.1224007265708501</v>
       </c>
       <c r="O14">
-        <v>0.1439862129369518</v>
+        <v>0.1439898467812294</v>
       </c>
       <c r="P14">
-        <v>0.14196394969625881</v>
+        <v>0.1419672214909528</v>
       </c>
       <c r="Q14">
-        <v>0.13445919056338759</v>
+        <v>0.1344619289372476</v>
       </c>
       <c r="R14">
-        <v>0.14421840861665611</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+        <v>0.144221727434438</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1328,55 +1268,55 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>2.1413615054206181E-5</v>
+        <v>2.141001238392418E-05</v>
       </c>
       <c r="D15">
-        <v>9.0762388574736185E-3</v>
+        <v>0.009076014843935117</v>
       </c>
       <c r="E15">
-        <v>8.9711976836886909E-3</v>
+        <v>0.008970915021485512</v>
       </c>
       <c r="F15">
-        <v>9.0231097687643053E-3</v>
+        <v>0.009022886731292007</v>
       </c>
       <c r="G15">
-        <v>8.8794830027947285E-3</v>
+        <v>0.008879187193058798</v>
       </c>
       <c r="H15">
-        <v>8.8794044897170746E-3</v>
+        <v>0.008879093817096543</v>
       </c>
       <c r="I15">
-        <v>9.2652803913285207E-3</v>
+        <v>0.009265091623503037</v>
       </c>
       <c r="J15">
-        <v>8.9588451462293429E-3</v>
+        <v>0.008958559954801042</v>
       </c>
       <c r="K15">
-        <v>8.8265434419696892E-3</v>
+        <v>0.008826298337794221</v>
       </c>
       <c r="L15">
-        <v>9.0747530336294097E-3</v>
+        <v>0.009074555504167366</v>
       </c>
       <c r="M15">
-        <v>8.8122978025452839E-3</v>
+        <v>0.008811975077780549</v>
       </c>
       <c r="N15">
-        <v>8.8216815917041471E-3</v>
+        <v>0.00882135791749504</v>
       </c>
       <c r="O15">
-        <v>9.1722416231522809E-3</v>
+        <v>0.00917209611952745</v>
       </c>
       <c r="P15">
-        <v>9.1517529170249811E-3</v>
+        <v>0.009151582628129795</v>
       </c>
       <c r="Q15">
-        <v>9.0585791140096929E-3</v>
+        <v>0.009058344653336657</v>
       </c>
       <c r="R15">
-        <v>9.2669187305241402E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+        <v>0.009266757466945989</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1384,55 +1324,55 @@
         <v>31</v>
       </c>
       <c r="C16">
-        <v>3.73298306122681E-6</v>
+        <v>3.732110113620473E-06</v>
       </c>
       <c r="D16">
-        <v>1.6609204008535829E-3</v>
+        <v>0.001660767455597287</v>
       </c>
       <c r="E16">
-        <v>1.7527244333073091E-3</v>
+        <v>0.001752552714339273</v>
       </c>
       <c r="F16">
-        <v>1.676969132051967E-3</v>
+        <v>0.001676815260056861</v>
       </c>
       <c r="G16">
-        <v>1.802350500238976E-3</v>
+        <v>0.001802172425848067</v>
       </c>
       <c r="H16">
-        <v>1.839750244515391E-3</v>
+        <v>0.001839566989103406</v>
       </c>
       <c r="I16">
-        <v>1.4139956536042559E-3</v>
+        <v>0.001413863213946715</v>
       </c>
       <c r="J16">
-        <v>1.7491421442351069E-3</v>
+        <v>0.001748969748353805</v>
       </c>
       <c r="K16">
-        <v>1.7943275171142211E-3</v>
+        <v>0.001794162216123903</v>
       </c>
       <c r="L16">
-        <v>1.56835514697059E-3</v>
+        <v>0.00156821205334675</v>
       </c>
       <c r="M16">
-        <v>1.877000754638883E-3</v>
+        <v>0.001876812409115624</v>
       </c>
       <c r="N16">
-        <v>1.871433710896246E-3</v>
+        <v>0.001871245543221182</v>
       </c>
       <c r="O16">
-        <v>1.105921436277554E-3</v>
+        <v>0.00110581964559994</v>
       </c>
       <c r="P16">
-        <v>1.4476185845794631E-3</v>
+        <v>0.001447486978298329</v>
       </c>
       <c r="Q16">
-        <v>1.6147913787764171E-3</v>
+        <v>0.001614637349524695</v>
       </c>
       <c r="R16">
-        <v>1.3019060096887019E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+        <v>0.001301785236165009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1440,55 +1380,55 @@
         <v>32</v>
       </c>
       <c r="C17">
-        <v>1.4672658223132849E-4</v>
+        <v>0.0001467072116382808</v>
       </c>
       <c r="D17">
-        <v>6.5977473424128158E-2</v>
+        <v>0.06597787301889217</v>
       </c>
       <c r="E17">
-        <v>7.0179831455706262E-2</v>
+        <v>0.070179950706732</v>
       </c>
       <c r="F17">
-        <v>6.8288651254111501E-2</v>
+        <v>0.06828910669654398</v>
       </c>
       <c r="G17">
-        <v>7.3435457855158606E-2</v>
+        <v>0.07343555406407253</v>
       </c>
       <c r="H17">
-        <v>7.4206144854006506E-2</v>
+        <v>0.07420617419887976</v>
       </c>
       <c r="I17">
-        <v>5.3566264474992249E-2</v>
+        <v>0.05356650720402861</v>
       </c>
       <c r="J17">
-        <v>7.0260233641739944E-2</v>
+        <v>0.07026032578449246</v>
       </c>
       <c r="K17">
-        <v>7.8600132727107336E-2</v>
+        <v>0.0786006859660055</v>
       </c>
       <c r="L17">
-        <v>6.3601894636418826E-2</v>
+        <v>0.06360235428535119</v>
       </c>
       <c r="M17">
-        <v>7.6425993838207265E-2</v>
+        <v>0.07642598625600208</v>
       </c>
       <c r="N17">
-        <v>7.6087829017637762E-2</v>
+        <v>0.07608780558239885</v>
       </c>
       <c r="O17">
-        <v>5.0819223029706373E-2</v>
+        <v>0.05081956851862488</v>
       </c>
       <c r="P17">
-        <v>5.6501250120681953E-2</v>
+        <v>0.05650166501663862</v>
       </c>
       <c r="Q17">
-        <v>6.5234536914320893E-2</v>
+        <v>0.06523480152049177</v>
       </c>
       <c r="R17">
-        <v>5.165906170269749E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+        <v>0.05165935952239648</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1496,52 +1436,52 @@
         <v>33</v>
       </c>
       <c r="C18">
-        <v>2.7943489769623149E-5</v>
+        <v>2.794008614633947E-05</v>
       </c>
       <c r="D18">
-        <v>1.2831699185729571E-2</v>
+        <v>0.01283188879402834</v>
       </c>
       <c r="E18">
-        <v>1.343976610730426E-2</v>
+        <v>0.01343999140776121</v>
       </c>
       <c r="F18">
-        <v>1.3297525268619371E-2</v>
+        <v>0.01329772323826092</v>
       </c>
       <c r="G18">
-        <v>1.4074912484791081E-2</v>
+        <v>0.01407514892840346</v>
       </c>
       <c r="H18">
-        <v>1.422206224100785E-2</v>
+        <v>0.01422230027238007</v>
       </c>
       <c r="I18">
-        <v>1.024979144846247E-2</v>
+        <v>0.01024994397037378</v>
       </c>
       <c r="J18">
-        <v>1.346309667741924E-2</v>
+        <v>0.01346332396457857</v>
       </c>
       <c r="K18">
-        <v>1.5429590776673149E-2</v>
+        <v>0.01542980427103988</v>
       </c>
       <c r="L18">
-        <v>1.231980977098714E-2</v>
+        <v>0.0123199908370159</v>
       </c>
       <c r="M18">
-        <v>1.463677343829288E-2</v>
+        <v>0.01463702013526898</v>
       </c>
       <c r="N18">
-        <v>1.457017877015254E-2</v>
+        <v>0.01457042407044385</v>
       </c>
       <c r="O18">
-        <v>9.0677498350153971E-3</v>
+        <v>0.009067859961592453</v>
       </c>
       <c r="P18">
-        <v>1.084576170388322E-2</v>
+        <v>0.01084591641924154</v>
       </c>
       <c r="Q18">
-        <v>1.2514215397900321E-2</v>
+        <v>0.01251440278521499</v>
       </c>
       <c r="R18">
-        <v>9.8627589654190963E-3</v>
+        <v>0.009862898451076111</v>
       </c>
     </row>
   </sheetData>
